--- a/results/region_genre_02_na_genre.xlsx
+++ b/results/region_genre_02_na_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>163702.0438</v>
+        <v>-68936.1231</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>151366.291</v>
+        <v>-115191.2416</v>
       </c>
       <c r="G2" t="n">
-        <v>176037.7967</v>
+        <v>-22681.0046</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -506,25 +506,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-25564.6393</v>
+        <v>-110779.664</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>-37900.3921</v>
+        <v>-159640.8528</v>
       </c>
       <c r="G3" t="n">
-        <v>-13228.8864</v>
+        <v>-61918.4752</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -536,25 +536,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>rpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64421.571</v>
+        <v>-77577.7914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.0018</v>
       </c>
       <c r="F4" t="n">
-        <v>52085.8182</v>
+        <v>-135274.7294</v>
       </c>
       <c r="G4" t="n">
-        <v>76757.3239</v>
+        <v>-19880.8533</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -566,25 +566,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>simul</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-189266.6831</v>
+        <v>-166496.847</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-201602.4359</v>
+        <v>-221807.824</v>
       </c>
       <c r="G5" t="n">
-        <v>-176930.9302</v>
+        <v>-111185.8699</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -596,28 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-99280.4728</v>
+        <v>-21742.3904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-111616.2256</v>
+        <v>-66043.1397</v>
       </c>
       <c r="G6" t="n">
-        <v>-86944.7199</v>
+        <v>22558.3589</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,27 +626,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89986.21030000001</v>
+        <v>-41843.5409</v>
       </c>
       <c r="E7" t="n">
+        <v>0.2214</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-95186.3316</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11499.2498</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-8641.6682</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-70180.06449999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52896.728</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-97560.72380000001</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" t="n">
-        <v>77650.4574</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102321.9632</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="F9" t="n">
+        <v>-156867.905</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-38253.5427</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>47193.7327</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2005.7992</v>
+      </c>
+      <c r="G10" t="n">
+        <v>96393.2647</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>33201.8726</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6486</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-30318.628</v>
+      </c>
+      <c r="G11" t="n">
+        <v>96722.3732</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-55717.183</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-117078.5838</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5644.2179</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>89037.2736</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37380.0018</v>
+      </c>
+      <c r="G13" t="n">
+        <v>140694.5454</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-88919.05560000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-157524.7581</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-20313.3531</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>55835.401</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4247.8298</v>
+      </c>
+      <c r="G15" t="n">
+        <v>115918.6317</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>144754.4566</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>86958.5904</v>
+      </c>
+      <c r="G16" t="n">
+        <v>202550.3227</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/results/region_genre_02_na_genre.xlsx
+++ b/results/region_genre_02_na_genre.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-68936.1231</v>
+        <v>171.4555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>-115191.2416</v>
+        <v>-70218.1534</v>
       </c>
       <c r="G2" t="n">
-        <v>-22681.0046</v>
+        <v>70561.0644</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-110779.664</v>
+        <v>-94586.99770000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F3" t="n">
-        <v>-159640.8528</v>
+        <v>-167565.0136</v>
       </c>
       <c r="G3" t="n">
-        <v>-61918.4752</v>
+        <v>-21608.9819</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-77577.7914</v>
+        <v>-10146.2681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0018</v>
+        <v>0.9</v>
       </c>
       <c r="F4" t="n">
-        <v>-135274.7294</v>
+        <v>-100017.7939</v>
       </c>
       <c r="G4" t="n">
-        <v>-19880.8533</v>
+        <v>79725.2577</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-166496.847</v>
+        <v>-152154.4512</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-221807.824</v>
+        <v>-240573.1465</v>
       </c>
       <c r="G5" t="n">
-        <v>-111185.8699</v>
+        <v>-63735.756</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-21742.3904</v>
+        <v>-43330.1859</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.3303</v>
       </c>
       <c r="F6" t="n">
-        <v>-66043.1397</v>
+        <v>-104442.5727</v>
       </c>
       <c r="G6" t="n">
-        <v>22558.3589</v>
+        <v>17782.201</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-41843.5409</v>
+        <v>-94758.4532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2214</v>
+        <v>0.0159</v>
       </c>
       <c r="F7" t="n">
-        <v>-95186.3316</v>
+        <v>-178468.2871</v>
       </c>
       <c r="G7" t="n">
-        <v>11499.2498</v>
+        <v>-11048.6194</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-8641.6682</v>
+        <v>-10317.7236</v>
       </c>
       <c r="E8" t="n">
         <v>0.9</v>
       </c>
       <c r="F8" t="n">
-        <v>-70180.06449999999</v>
+        <v>-109102.5232</v>
       </c>
       <c r="G8" t="n">
-        <v>52896.728</v>
+        <v>88467.0759</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-97560.72380000001</v>
+        <v>-152325.9068</v>
       </c>
       <c r="E9" t="n">
         <v>0.001</v>
       </c>
       <c r="F9" t="n">
-        <v>-156867.905</v>
+        <v>-249790.8294</v>
       </c>
       <c r="G9" t="n">
-        <v>-38253.5427</v>
+        <v>-54860.9841</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47193.7327</v>
+        <v>-43501.6414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.536</v>
       </c>
       <c r="F10" t="n">
-        <v>-2005.7992</v>
+        <v>-117096.949</v>
       </c>
       <c r="G10" t="n">
-        <v>96393.2647</v>
+        <v>30093.6662</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33201.8726</v>
+        <v>84440.72960000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6486</v>
+        <v>0.1593</v>
       </c>
       <c r="F11" t="n">
-        <v>-30318.628</v>
+        <v>-16204.8385</v>
       </c>
       <c r="G11" t="n">
-        <v>96722.3732</v>
+        <v>185086.2977</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-55717.183</v>
+        <v>-57567.4535</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1002</v>
+        <v>0.5552</v>
       </c>
       <c r="F12" t="n">
-        <v>-117078.5838</v>
+        <v>-156917.8682</v>
       </c>
       <c r="G12" t="n">
-        <v>5644.2179</v>
+        <v>41782.9612</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -815,19 +815,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89037.2736</v>
+        <v>51256.8119</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>0.3911</v>
       </c>
       <c r="F13" t="n">
-        <v>37380.0018</v>
+        <v>-24817.9083</v>
       </c>
       <c r="G13" t="n">
-        <v>140694.5454</v>
+        <v>127331.5321</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-88919.05560000001</v>
+        <v>-142008.1831</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003</v>
+        <v>0.0043</v>
       </c>
       <c r="F14" t="n">
-        <v>-157524.7581</v>
+        <v>-254354.1009</v>
       </c>
       <c r="G14" t="n">
-        <v>-20313.3531</v>
+        <v>-29662.2653</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55835.401</v>
+        <v>-33183.9177</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0862</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
-        <v>-4247.8298</v>
+        <v>-125587.7239</v>
       </c>
       <c r="G15" t="n">
-        <v>115918.6317</v>
+        <v>59219.8885</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>144754.4566</v>
+        <v>108824.2654</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0.0086</v>
       </c>
       <c r="F16" t="n">
-        <v>86958.5904</v>
+        <v>17832.8487</v>
       </c>
       <c r="G16" t="n">
-        <v>202550.3227</v>
+        <v>199815.6821</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
